--- a/Projet_automatisation_creation_profil/profil/modele.xlsx
+++ b/Projet_automatisation_creation_profil/profil/modele.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Formulaire</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Code postal :</t>
   </si>
   <si>
-    <t>Abegnel</t>
-  </si>
-  <si>
     <t>Assistant</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>Thierry</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Barahteon</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -418,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
